--- a/data/General Table for Post-Treatment/Post-Treatment_no past.xlsx
+++ b/data/General Table for Post-Treatment/Post-Treatment_no past.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/egemend2/Documents/Documents/Enduring Guidelines/Web Tool/new tables for the tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/druss/Downloads/new tables for the tool/General Table for Post-Treatment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29056EE9-7DE0-EA4A-BE9C-CE05E3452B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4D4CB6-B294-F04C-BD3F-908BEECC5A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1960" windowWidth="38400" windowHeight="21600" xr2:uid="{3058B95C-994A-5248-B976-159104BD4B3A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{3058B95C-994A-5248-B976-159104BD4B3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="106">
   <si>
     <t>Age</t>
   </si>
@@ -89,75 +89,21 @@
     <t>CIN2+ Immediate risk (%)</t>
   </si>
   <si>
-    <t>SE immediate</t>
-  </si>
-  <si>
-    <t>LL95 immediate</t>
-  </si>
-  <si>
-    <t>UL95 immediate</t>
-  </si>
-  <si>
     <t>CIN2+ 1 year risk  (%)</t>
   </si>
   <si>
-    <t>SE 1-year</t>
-  </si>
-  <si>
-    <t>LL95 1-year</t>
-  </si>
-  <si>
-    <t>UL95 1-year</t>
-  </si>
-  <si>
     <t>CIN2+ 2 year risk  (%)</t>
   </si>
   <si>
-    <t>SE 2-year</t>
-  </si>
-  <si>
-    <t>LL95 2-year</t>
-  </si>
-  <si>
-    <t>UL95 2-year</t>
-  </si>
-  <si>
     <t>CIN2+ 3 year risk  (%)</t>
   </si>
   <si>
-    <t>SE 3-year</t>
-  </si>
-  <si>
-    <t>LL95 3-year</t>
-  </si>
-  <si>
-    <t>UL95 3-year</t>
-  </si>
-  <si>
     <t>CIN2+ 4 year risk  (%)</t>
   </si>
   <si>
-    <t>SE 4-year</t>
-  </si>
-  <si>
-    <t>LL95 4-year</t>
-  </si>
-  <si>
-    <t>UL95 4-year</t>
-  </si>
-  <si>
     <t>CIN2+ 5 year risk  (%)</t>
   </si>
   <si>
-    <t>SE 5-year</t>
-  </si>
-  <si>
-    <t>LL95 5-year</t>
-  </si>
-  <si>
-    <t>UL95 5-year</t>
-  </si>
-  <si>
     <t>CIN3+ Immediate risk (%)</t>
   </si>
   <si>
@@ -243,6 +189,168 @@
   </si>
   <si>
     <t>ALL</t>
+  </si>
+  <si>
+    <t>CIN2+ SE immediate</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 immediate</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 immediate</t>
+  </si>
+  <si>
+    <t>CIN2+ SE 1-year</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 1-year</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 1-year</t>
+  </si>
+  <si>
+    <t>CIN2+ SE 2-year</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 2-year</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 2-year</t>
+  </si>
+  <si>
+    <t>CIN2+ SE 3-year</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 3-year</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 3-year</t>
+  </si>
+  <si>
+    <t>CIN2+ SE 4-year</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 4-year</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 4-year</t>
+  </si>
+  <si>
+    <t>CIN2+ SE 5-year</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 5-year</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 5-year</t>
+  </si>
+  <si>
+    <t>CIN3+ SE immediate</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 immediate</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 immediate</t>
+  </si>
+  <si>
+    <t>CIN3+ SE 1-year</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 1-year</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 1-year</t>
+  </si>
+  <si>
+    <t>CIN3+ SE 2-year</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 2-year</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 2-year</t>
+  </si>
+  <si>
+    <t>CIN3+ SE 3-year</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 3-year</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 3-year</t>
+  </si>
+  <si>
+    <t>CIN3+ SE 4-year</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 4-year</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 4-year</t>
+  </si>
+  <si>
+    <t>CIN3+ SE 5-year</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 5-year</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 5-year</t>
+  </si>
+  <si>
+    <t>CANCER SE immediate</t>
+  </si>
+  <si>
+    <t>CANCER LL95 immediate</t>
+  </si>
+  <si>
+    <t>CANCER UL95 immediate</t>
+  </si>
+  <si>
+    <t>CANCER E 1-year</t>
+  </si>
+  <si>
+    <t>CANCER LL95 1-year</t>
+  </si>
+  <si>
+    <t>CANCER UL95 1-year</t>
+  </si>
+  <si>
+    <t>CANCER SE 2-year</t>
+  </si>
+  <si>
+    <t>CANCER LL95 2-year</t>
+  </si>
+  <si>
+    <t>CANCER UL95 2-year</t>
+  </si>
+  <si>
+    <t>CANCER SE 3-year</t>
+  </si>
+  <si>
+    <t>CANCER LL95 3-year</t>
+  </si>
+  <si>
+    <t>CANCER UL95 3-year</t>
+  </si>
+  <si>
+    <t>CANCER SE 4-year</t>
+  </si>
+  <si>
+    <t>CANCER LL95 4-year</t>
+  </si>
+  <si>
+    <t>CANCER UL95 4-year</t>
+  </si>
+  <si>
+    <t>CANCER SE 5-year</t>
+  </si>
+  <si>
+    <t>CANCER LL95 5-year</t>
+  </si>
+  <si>
+    <t>CANCER UL95 5-year</t>
   </si>
 </sst>
 </file>
@@ -695,7 +803,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:CP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -719,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -776,242 +884,242 @@
         <v>17</v>
       </c>
       <c r="U1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AG1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AW1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="BM1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BO1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BP1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BS1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BT1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BW1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BX1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BZ1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="CA1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="CC1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="CG1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="CH1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="CI1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="CK1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="CL1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="CN1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="CO1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="CP1" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="BF1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="BG1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="BH1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="BI1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="BJ1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="BK1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="BL1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="BM1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="BN1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="BO1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="BP1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="BQ1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="BR1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="BS1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="BT1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="BU1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="BV1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="BW1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="BX1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="BY1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="BZ1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="CA1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="CB1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="CC1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="CD1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="CE1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="CF1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="CG1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="CH1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="CI1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="CK1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="CL1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="CM1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="CN1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="CO1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="CP1" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="CQ1" s="8"/>
     </row>
     <row r="2" spans="1:95" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F2" s="10">
         <v>3525</v>
@@ -1200,79 +1308,79 @@
         <v>2.27958162995645</v>
       </c>
       <c r="BP2" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BQ2" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BR2" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BS2" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BT2" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BU2" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BV2" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BW2" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BX2" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BY2" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BZ2" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CA2" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CB2" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CC2" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CD2" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CE2" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CF2" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CG2" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CH2" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CI2" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CJ2" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CK2" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CL2" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CM2" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CN2" s="14" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="CO2" s="15">
         <v>0.99985487848926635</v>
@@ -1284,17 +1392,17 @@
     </row>
     <row r="3" spans="1:95" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F3" s="10">
         <v>280</v>
@@ -1483,79 +1591,79 @@
         <v>6.9431426890337304</v>
       </c>
       <c r="BP3" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BQ3" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BR3" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BS3" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BT3" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BU3" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BV3" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BW3" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BX3" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BY3" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BZ3" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CA3" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CB3" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CC3" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CD3" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CE3" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CF3" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CG3" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CH3" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CI3" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CJ3" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CK3" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CL3" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CM3" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CN3" s="14" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="CO3" s="15">
         <v>0.97976726059635033</v>
@@ -1567,17 +1675,17 @@
     </row>
     <row r="4" spans="1:95" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F4" s="10">
         <v>290</v>
@@ -1766,79 +1874,79 @@
         <v>17.196146865510201</v>
       </c>
       <c r="BP4" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BQ4" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BR4" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BS4" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BT4" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BU4" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BV4" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BW4" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BX4" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BY4" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BZ4" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CA4" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CB4" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CC4" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CD4" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CE4" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CF4" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CG4" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CH4" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CI4" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CJ4" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CK4" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CL4" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CM4" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CN4" s="13" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="CO4" s="15">
         <v>0.85896529684809442</v>
@@ -1850,17 +1958,17 @@
     </row>
     <row r="5" spans="1:95" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F5" s="10">
         <v>342</v>
@@ -2049,79 +2157,79 @@
         <v>26.932799761818298</v>
       </c>
       <c r="BP5" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BQ5" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BR5" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BS5" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BT5" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BU5" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BV5" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BW5" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BX5" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BY5" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BZ5" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CA5" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CB5" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CC5" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CD5" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CE5" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CF5" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CG5" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CH5" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CI5" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CJ5" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CK5" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CL5" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CM5" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CN5" s="13" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="CO5" s="15">
         <v>0.99949003432790551</v>
@@ -2133,17 +2241,17 @@
     </row>
     <row r="6" spans="1:95" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F6" s="10">
         <v>59</v>
@@ -2332,79 +2440,79 @@
         <v>27.4166808613458</v>
       </c>
       <c r="BP6" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BQ6" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BR6" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BS6" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BT6" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BU6" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BV6" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BW6" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BX6" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BY6" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BZ6" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CA6" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CB6" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CC6" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CD6" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CE6" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CF6" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CG6" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CH6" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CI6" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CJ6" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CK6" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CL6" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CM6" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CN6" s="13" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="CO6" s="15">
         <v>0.92701218447695166</v>
@@ -2416,17 +2524,17 @@
     </row>
     <row r="7" spans="1:95" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F7" s="10">
         <v>199</v>
@@ -2615,79 +2723,79 @@
         <v>71.659082284147502</v>
       </c>
       <c r="BP7" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BQ7" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BR7" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BS7" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BT7" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BU7" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BV7" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BW7" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BX7" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BY7" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="BZ7" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CA7" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CB7" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CC7" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CD7" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CE7" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CF7" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CG7" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CH7" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CI7" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CJ7" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CK7" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CL7" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CM7" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CN7" s="12" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="CO7" s="15">
         <v>0.97194869245835402</v>
@@ -2699,17 +2807,17 @@
     </row>
     <row r="8" spans="1:95" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F8" s="10">
         <v>3876</v>
@@ -2970,7 +3078,7 @@
         <v>0.122860535241907</v>
       </c>
       <c r="CN8" s="14" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="CO8" s="15">
         <v>0.99999691212347874</v>
